--- a/ppx-ocaml-4.06-irmin-1.4.0/test/heap_leftlist/mem/heap_graph.xlsx
+++ b/ppx-ocaml-4.06-irmin-1.4.0/test/heap_leftlist/mem/heap_graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="460" windowWidth="25600" windowHeight="14680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results - results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="12" uniqueCount="12">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10" uniqueCount="10">
   <si>
     <t>n-rounds</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>avg_per_r_ct</t>
-  </si>
-  <si>
-    <t>avg-avg-mer</t>
   </si>
 </sst>
 </file>
@@ -700,9 +694,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>per-round comp time</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -742,71 +733,44 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$17:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="18">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="21">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="24">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="27">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="30">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="33">
                   <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
@@ -814,72 +778,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>19.229333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.229333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.229333</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.865333333333332</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.865333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.865333</c:v>
+                  <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.473333333333329</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.473332999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47.473332999999997</c:v>
+                  <c:v>10.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.507999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64.507999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64.507999999999996</c:v>
+                  <c:v>12.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.594333333333324</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>87.594332999999992</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>87.594332999999992</c:v>
+                  <c:v>12.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110.90633333333332</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>110.90633299999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>110.90633299999999</c:v>
+                  <c:v>13.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>148.53966666666665</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>148.53966699999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>148.53966699999998</c:v>
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,9 +831,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>avergae merge time</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -936,80 +870,44 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="30">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
@@ -1017,81 +915,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$14:$F$37</c:f>
+              <c:f>Sheet1!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>6.0799999999999992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.08</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.804999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.805</c:v>
+                  <c:v>112.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.481333333333335</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.481332999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.481332999999999</c:v>
+                  <c:v>105.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.911</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.911</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.911</c:v>
+                  <c:v>205.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.600333333333335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.600330000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31.600330000000003</c:v>
+                  <c:v>348.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.805</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31.805</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31.805</c:v>
+                  <c:v>408.66666666666674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.823333333333338</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78.823332999999991</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>78.823332999999991</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49.565333333333328</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.565333000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>49.565333000000003</c:v>
+                  <c:v>480.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>670.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>245.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,7 +1149,7 @@
                       <a:srgbClr val="7030A0"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>time in miliseconds</a:t>
+                  <a:t>time in microseconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2015,16 +1877,16 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4151,86 +4013,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <f>1000*C2</f>
-        <v>0.31299999999999994</v>
+        <f>1000000*C2</f>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3.1299999999999996E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <f>1000*G2</f>
-        <v>9.7000000000000017E-2</v>
+        <f>1000000*G2</f>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>9.7000000000000013E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B46" si="0">1000*C3</f>
-        <v>0.31299999999999994</v>
-      </c>
-      <c r="C3">
-        <v>3.1299999999999996E-4</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F46" si="1">1000*G3</f>
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G3">
-        <v>9.7E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.31299999999999994</v>
-      </c>
-      <c r="C4">
-        <v>3.1299999999999996E-4</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G4">
-        <v>9.7E-5</v>
+        <v>3.6000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4238,65 +4048,21 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1.1103333333333332</v>
+        <f>1000000*C5</f>
+        <v>7.666666666666667</v>
       </c>
       <c r="C5">
-        <v>1.1103333333333332E-3</v>
+        <v>7.6666666666666672E-6</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.38366666666666671</v>
+        <f>1000000*G5</f>
+        <v>112.66666666666666</v>
       </c>
       <c r="G5">
-        <v>3.836666666666667E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1.1103333333333332</v>
-      </c>
-      <c r="C6">
-        <v>1.1103333333333332E-3</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.38366700000000004</v>
-      </c>
-      <c r="G6">
-        <v>3.8366700000000002E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1.1103333333333332</v>
-      </c>
-      <c r="C7">
-        <v>1.1103333333333332E-3</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.38366700000000004</v>
-      </c>
-      <c r="G7">
-        <v>3.8366700000000002E-4</v>
+        <v>1.1266666666666666E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4304,65 +4070,21 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>3.1920000000000002</v>
+        <f>1000000*C8</f>
+        <v>10.333333333333334</v>
       </c>
       <c r="C8">
-        <v>3.192E-3</v>
+        <v>1.0333333333333333E-5</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>1.4983333333333333</v>
+        <f>1000000*G8</f>
+        <v>105.33333333333333</v>
       </c>
       <c r="G8">
-        <v>1.4983333333333333E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="C9">
-        <v>3.192E-3</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1.4983329999999999</v>
-      </c>
-      <c r="G9">
-        <v>1.4983329999999999E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="C10">
-        <v>3.192E-3</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1.4983329999999999</v>
-      </c>
-      <c r="G10">
-        <v>1.4983329999999999E-3</v>
+        <v>1.0533333333333332E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4370,65 +4092,21 @@
         <v>40</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>7.5239999999999991</v>
+        <f>1000000*C11</f>
+        <v>12.333333333333332</v>
       </c>
       <c r="C11">
-        <v>7.5239999999999994E-3</v>
+        <v>1.2333333333333333E-5</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>3.1299999999999994</v>
+        <f>1000000*G11</f>
+        <v>205.66666666666663</v>
       </c>
       <c r="G11">
-        <v>3.1299999999999995E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>7.524</v>
-      </c>
-      <c r="C12">
-        <v>7.5240000000000003E-3</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>3.1</v>
-      </c>
-      <c r="G12">
-        <v>3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>7.524</v>
-      </c>
-      <c r="C13">
-        <v>7.5240000000000003E-3</v>
-      </c>
-      <c r="E13">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>3.1</v>
-      </c>
-      <c r="G13">
-        <v>3.0999999999999999E-3</v>
+        <v>2.0566666666666663E-4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4436,65 +4114,21 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>11.502666666666666</v>
+        <f>1000000*C14</f>
+        <v>12.333333333333332</v>
       </c>
       <c r="C14">
-        <v>1.1502666666666666E-2</v>
+        <v>1.2333333333333333E-5</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>6.0799999999999992</v>
+        <f>1000000*G14</f>
+        <v>348.66666666666669</v>
       </c>
       <c r="G14">
-        <v>6.0799999999999995E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>11.502666999999999</v>
-      </c>
-      <c r="C15">
-        <v>1.1502666999999999E-2</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>6.08</v>
-      </c>
-      <c r="G15">
-        <v>6.0800000000000003E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>11.502666999999999</v>
-      </c>
-      <c r="C16">
-        <v>1.1502666999999999E-2</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>6.08</v>
-      </c>
-      <c r="G16">
-        <v>6.0800000000000003E-3</v>
+        <v>3.4866666666666667E-4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4502,65 +4136,21 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>19.229333333333333</v>
+        <f>1000000*C17</f>
+        <v>13.666666666666668</v>
       </c>
       <c r="C17">
-        <v>1.9229333333333334E-2</v>
+        <v>1.3666666666666667E-5</v>
       </c>
       <c r="E17">
         <v>60</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>14.804999999999998</v>
+        <f>1000000*G17</f>
+        <v>408.66666666666674</v>
       </c>
       <c r="G17">
-        <v>1.4804999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>60</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>19.229333</v>
-      </c>
-      <c r="C18">
-        <v>1.9229333000000001E-2</v>
-      </c>
-      <c r="E18">
-        <v>60</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>14.805</v>
-      </c>
-      <c r="G18">
-        <v>1.4805E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>60</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>19.229333</v>
-      </c>
-      <c r="C19">
-        <v>1.9229333000000001E-2</v>
-      </c>
-      <c r="E19">
-        <v>60</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>14.805</v>
-      </c>
-      <c r="G19">
-        <v>1.4805E-2</v>
+        <v>4.0866666666666672E-4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4568,65 +4158,21 @@
         <v>70</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>38.865333333333332</v>
+        <f>1000000*C20</f>
+        <v>15.666666666666666</v>
       </c>
       <c r="C20">
-        <v>3.8865333333333335E-2</v>
+        <v>1.5666666666666667E-5</v>
       </c>
       <c r="E20">
         <v>70</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>16.481333333333335</v>
+        <f>1000000*G20</f>
+        <v>214</v>
       </c>
       <c r="G20">
-        <v>1.6481333333333334E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>70</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>38.865333</v>
-      </c>
-      <c r="C21">
-        <v>3.8865333000000002E-2</v>
-      </c>
-      <c r="E21">
-        <v>70</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>16.481332999999999</v>
-      </c>
-      <c r="G21">
-        <v>1.6481333000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>70</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>38.865333</v>
-      </c>
-      <c r="C22">
-        <v>3.8865333000000002E-2</v>
-      </c>
-      <c r="E22">
-        <v>70</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>16.481332999999999</v>
-      </c>
-      <c r="G22">
-        <v>1.6481333000000001E-2</v>
+        <v>2.14E-4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4634,65 +4180,21 @@
         <v>80</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>47.473333333333329</v>
+        <f>1000000*C23</f>
+        <v>18.333333333333332</v>
       </c>
       <c r="C23">
-        <v>4.7473333333333333E-2</v>
+        <v>1.8333333333333333E-5</v>
       </c>
       <c r="E23">
         <v>80</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>13.911</v>
+        <f>1000000*G23</f>
+        <v>480.66666666666674</v>
       </c>
       <c r="G23">
-        <v>1.3911E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>80</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>47.473332999999997</v>
-      </c>
-      <c r="C24">
-        <v>4.7473333E-2</v>
-      </c>
-      <c r="E24">
-        <v>80</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>13.911</v>
-      </c>
-      <c r="G24">
-        <v>1.3911E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>80</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>47.473332999999997</v>
-      </c>
-      <c r="C25">
-        <v>4.7473333E-2</v>
-      </c>
-      <c r="E25">
-        <v>80</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>13.911</v>
-      </c>
-      <c r="G25">
-        <v>1.3911E-2</v>
+        <v>4.8066666666666673E-4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4700,65 +4202,21 @@
         <v>90</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>64.507999999999996</v>
+        <f>1000000*C26</f>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>6.4507999999999996E-2</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="E26">
         <v>90</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>31.600333333333335</v>
+        <f>1000000*G26</f>
+        <v>670.66666666666663</v>
       </c>
       <c r="G26">
-        <v>3.1600333333333334E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>90</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>64.507999999999996</v>
-      </c>
-      <c r="C27">
-        <v>6.4507999999999996E-2</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>31.600330000000003</v>
-      </c>
-      <c r="G27">
-        <v>3.1600330000000003E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>90</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>64.507999999999996</v>
-      </c>
-      <c r="C28">
-        <v>6.4507999999999996E-2</v>
-      </c>
-      <c r="E28">
-        <v>90</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>31.600330000000003</v>
-      </c>
-      <c r="G28">
-        <v>3.1600330000000003E-2</v>
+        <v>6.7066666666666663E-4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4766,65 +4224,21 @@
         <v>100</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>87.594333333333324</v>
+        <f>1000000*C29</f>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>8.759433333333333E-2</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>31.805</v>
+        <f>1000000*G29</f>
+        <v>605</v>
       </c>
       <c r="G29">
-        <v>3.1805E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>100</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>87.594332999999992</v>
-      </c>
-      <c r="C30">
-        <v>8.7594332999999996E-2</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>31.805</v>
-      </c>
-      <c r="G30">
-        <v>3.1805E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>100</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>87.594332999999992</v>
-      </c>
-      <c r="C31">
-        <v>8.7594332999999996E-2</v>
-      </c>
-      <c r="E31">
-        <v>100</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>31.805</v>
-      </c>
-      <c r="G31">
-        <v>3.1805E-2</v>
+        <v>6.0499999999999996E-4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4832,65 +4246,21 @@
         <v>110</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>110.90633333333332</v>
+        <f>1000000*C32</f>
+        <v>24</v>
       </c>
       <c r="C32">
-        <v>0.11090633333333333</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="E32">
         <v>110</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>78.823333333333338</v>
+        <f>1000000*G32</f>
+        <v>245.99999999999997</v>
       </c>
       <c r="G32">
-        <v>7.8823333333333342E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>110</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>110.90633299999999</v>
-      </c>
-      <c r="C33">
-        <v>0.110906333</v>
-      </c>
-      <c r="E33">
-        <v>110</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>78.823332999999991</v>
-      </c>
-      <c r="G33">
-        <v>7.8823332999999995E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>110</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>110.90633299999999</v>
-      </c>
-      <c r="C34">
-        <v>0.110906333</v>
-      </c>
-      <c r="E34">
-        <v>110</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>78.823332999999991</v>
-      </c>
-      <c r="G34">
-        <v>7.8823332999999995E-2</v>
+        <v>2.4599999999999996E-4</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4898,65 +4268,21 @@
         <v>120</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>148.53966666666665</v>
+        <f>1000000*C35</f>
+        <v>36.666666666666664</v>
       </c>
       <c r="C35">
-        <v>0.14853966666666665</v>
+        <v>3.6666666666666666E-5</v>
       </c>
       <c r="E35">
         <v>120</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>49.565333333333328</v>
+        <f>1000000*G35</f>
+        <v>1541</v>
       </c>
       <c r="G35">
-        <v>4.9565333333333329E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>120</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>148.53966699999998</v>
-      </c>
-      <c r="C36">
-        <v>0.14853966699999999</v>
-      </c>
-      <c r="E36">
-        <v>120</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>49.565333000000003</v>
-      </c>
-      <c r="G36">
-        <v>4.9565333000000003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>120</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>148.53966699999998</v>
-      </c>
-      <c r="C37">
-        <v>0.14853966699999999</v>
-      </c>
-      <c r="E37">
-        <v>120</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>49.565333000000003</v>
-      </c>
-      <c r="G37">
-        <v>4.9565333000000003E-2</v>
+        <v>1.5410000000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4964,65 +4290,21 @@
         <v>130</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>191.57266666666669</v>
+        <f>1000000*C38</f>
+        <v>30.666666666666668</v>
       </c>
       <c r="C38">
-        <v>0.1915726666666667</v>
+        <v>3.0666666666666669E-5</v>
       </c>
       <c r="E38">
         <v>130</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>152.96433333333334</v>
+        <f>1000000*G38</f>
+        <v>664.33333333333326</v>
       </c>
       <c r="G38">
-        <v>0.15296433333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>130</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>191.572667</v>
-      </c>
-      <c r="C39">
-        <v>0.191572667</v>
-      </c>
-      <c r="E39">
-        <v>130</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>152.96433300000001</v>
-      </c>
-      <c r="G39">
-        <v>0.15296433300000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>130</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>191.572667</v>
-      </c>
-      <c r="C40">
-        <v>0.191572667</v>
-      </c>
-      <c r="E40">
-        <v>130</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>152.96433300000001</v>
-      </c>
-      <c r="G40">
-        <v>0.15296433300000001</v>
+        <v>6.6433333333333329E-4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -5030,65 +4312,21 @@
         <v>140</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>250.52</v>
+        <f>1000000*C41</f>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>0.25052000000000002</v>
+        <v>2.9E-5</v>
       </c>
       <c r="E41">
         <v>140</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>177.62066666666666</v>
+        <f>1000000*G41</f>
+        <v>1540.6666666666665</v>
       </c>
       <c r="G41">
-        <v>0.17762066666666668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>140</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>250.52</v>
-      </c>
-      <c r="C42">
-        <v>0.25052000000000002</v>
-      </c>
-      <c r="E42">
-        <v>140</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>177.620667</v>
-      </c>
-      <c r="G42">
-        <v>0.17762066700000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>140</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>250.52</v>
-      </c>
-      <c r="C43">
-        <v>0.25052000000000002</v>
-      </c>
-      <c r="E43">
-        <v>140</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>177.620667</v>
-      </c>
-      <c r="G43">
-        <v>0.17762066700000001</v>
+        <v>1.5406666666666665E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5096,65 +4334,21 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>305.14699999999999</v>
+        <f>1000000*C44</f>
+        <v>35.000000000000007</v>
       </c>
       <c r="C44">
-        <v>0.305147</v>
+        <v>3.5000000000000004E-5</v>
       </c>
       <c r="E44">
         <v>150</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>40.387666666666675</v>
+        <f>1000000*G44</f>
+        <v>860.00000000000011</v>
       </c>
       <c r="G44">
-        <v>4.0387666666666676E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>150</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>305.14699999999999</v>
-      </c>
-      <c r="C45">
-        <v>0.305147</v>
-      </c>
-      <c r="E45">
-        <v>150</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>40.387667</v>
-      </c>
-      <c r="G45">
-        <v>4.0387667000000002E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>150</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>305.14699999999999</v>
-      </c>
-      <c r="C46">
-        <v>0.305147</v>
-      </c>
-      <c r="E46">
-        <v>150</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>40.387667</v>
-      </c>
-      <c r="G46">
-        <v>4.0387667000000002E-2</v>
+        <v>8.6000000000000009E-4</v>
       </c>
     </row>
   </sheetData>

--- a/ppx-ocaml-4.06-irmin-1.4.0/test/heap_leftlist/mem/heap_graph.xlsx
+++ b/ppx-ocaml-4.06-irmin-1.4.0/test/heap_leftlist/mem/heap_graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results - results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10" uniqueCount="10">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="12" uniqueCount="12">
   <si>
     <t>n-rounds</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>avg-m-time-micro-sec</t>
+  </si>
+  <si>
+    <t>avg-per-r-comp-micro-sec</t>
   </si>
 </sst>
 </file>
@@ -694,6 +700,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Per-Round Compilation Time</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -717,7 +726,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>per-round comp time</c:name>
+            <c:name>Per-Round Compilation Time</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -728,95 +737,105 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$1:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
+                <c:ptCount val="39"/>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$1:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.333333333333334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>36.666666666666664</c:v>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,6 +850,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Avearge Merge Time</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -854,7 +876,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>average merge time</c:name>
+            <c:name>Average Merge Time</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -865,95 +887,111 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$1:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
+                <c:ptCount val="45"/>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$37</c:f>
+              <c:f>Sheet1!$F$1:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>112.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105.33333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>205.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>348.66666666666669</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>408.66666666666674</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>480.66666666666674</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>670.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>245.99999999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1541</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>337.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>695.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>691.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>531.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>322.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>879.66666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,65 +1162,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65%"/>
-                        <a:lumOff val="35%"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0%">
-                    <a:solidFill>
-                      <a:srgbClr val="7030A0"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>time in microseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65%"/>
-                      <a:lumOff val="35%"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1877,16 +1856,16 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4013,34 +3992,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <f>1000000*C2</f>
-        <v>6</v>
+        <f t="shared" ref="B2:B45" si="0">1000000*C2</f>
+        <v>8.6666666666666661</v>
       </c>
       <c r="C2">
-        <v>6.0000000000000002E-6</v>
+        <v>8.6666666666666661E-6</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
         <f>1000000*G2</f>
-        <v>36</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="G2">
-        <v>3.6000000000000001E-5</v>
+        <v>2.0666666666666666E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4048,7 +4038,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <f>1000000*C5</f>
+        <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
       <c r="C5">
@@ -4059,10 +4049,10 @@
       </c>
       <c r="F5">
         <f>1000000*G5</f>
-        <v>112.66666666666666</v>
+        <v>76.333333333333343</v>
       </c>
       <c r="G5">
-        <v>1.1266666666666666E-4</v>
+        <v>7.6333333333333337E-5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4070,21 +4060,21 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <f>1000000*C8</f>
-        <v>10.333333333333334</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1.0333333333333333E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8">
         <f>1000000*G8</f>
-        <v>105.33333333333333</v>
+        <v>124.33333333333334</v>
       </c>
       <c r="G8">
-        <v>1.0533333333333332E-4</v>
+        <v>1.2433333333333334E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4092,21 +4082,21 @@
         <v>40</v>
       </c>
       <c r="B11">
-        <f>1000000*C11</f>
-        <v>12.333333333333332</v>
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="C11">
-        <v>1.2333333333333333E-5</v>
+        <v>1.1666666666666666E-5</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11">
         <f>1000000*G11</f>
-        <v>205.66666666666663</v>
+        <v>136.33333333333334</v>
       </c>
       <c r="G11">
-        <v>2.0566666666666663E-4</v>
+        <v>1.3633333333333333E-4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4114,21 +4104,21 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <f>1000000*C14</f>
-        <v>12.333333333333332</v>
+        <f t="shared" si="0"/>
+        <v>14.666666666666666</v>
       </c>
       <c r="C14">
-        <v>1.2333333333333333E-5</v>
+        <v>1.4666666666666666E-5</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="F14">
         <f>1000000*G14</f>
-        <v>348.66666666666669</v>
+        <v>180.66666666666666</v>
       </c>
       <c r="G14">
-        <v>3.4866666666666667E-4</v>
+        <v>1.8066666666666665E-4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4136,21 +4126,21 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <f>1000000*C17</f>
-        <v>13.666666666666668</v>
+        <f t="shared" si="0"/>
+        <v>14.333333333333334</v>
       </c>
       <c r="C17">
-        <v>1.3666666666666667E-5</v>
+        <v>1.4333333333333334E-5</v>
       </c>
       <c r="E17">
         <v>60</v>
       </c>
       <c r="F17">
         <f>1000000*G17</f>
-        <v>408.66666666666674</v>
+        <v>177</v>
       </c>
       <c r="G17">
-        <v>4.0866666666666672E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4158,21 +4148,21 @@
         <v>70</v>
       </c>
       <c r="B20">
-        <f>1000000*C20</f>
-        <v>15.666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>1.5666666666666667E-5</v>
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="E20">
         <v>70</v>
       </c>
       <c r="F20">
         <f>1000000*G20</f>
-        <v>214</v>
+        <v>337.33333333333331</v>
       </c>
       <c r="G20">
-        <v>2.14E-4</v>
+        <v>3.3733333333333331E-4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4180,21 +4170,21 @@
         <v>80</v>
       </c>
       <c r="B23">
-        <f>1000000*C23</f>
-        <v>18.333333333333332</v>
+        <f t="shared" si="0"/>
+        <v>18.999999999999996</v>
       </c>
       <c r="C23">
-        <v>1.8333333333333333E-5</v>
+        <v>1.8999999999999998E-5</v>
       </c>
       <c r="E23">
         <v>80</v>
       </c>
       <c r="F23">
         <f>1000000*G23</f>
-        <v>480.66666666666674</v>
+        <v>719</v>
       </c>
       <c r="G23">
-        <v>4.8066666666666673E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4202,21 +4192,21 @@
         <v>90</v>
       </c>
       <c r="B26">
-        <f>1000000*C26</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>21.666666666666664</v>
       </c>
       <c r="C26">
-        <v>2.4000000000000001E-5</v>
+        <v>2.1666666666666664E-5</v>
       </c>
       <c r="E26">
         <v>90</v>
       </c>
       <c r="F26">
         <f>1000000*G26</f>
-        <v>670.66666666666663</v>
+        <v>695.66666666666663</v>
       </c>
       <c r="G26">
-        <v>6.7066666666666663E-4</v>
+        <v>6.9566666666666659E-4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4224,21 +4214,21 @@
         <v>100</v>
       </c>
       <c r="B29">
-        <f>1000000*C29</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>22.000000000000004</v>
       </c>
       <c r="C29">
-        <v>2.5999999999999998E-5</v>
+        <v>2.2000000000000003E-5</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29">
         <f>1000000*G29</f>
-        <v>605</v>
+        <v>691.33333333333326</v>
       </c>
       <c r="G29">
-        <v>6.0499999999999996E-4</v>
+        <v>6.913333333333333E-4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4246,21 +4236,21 @@
         <v>110</v>
       </c>
       <c r="B32">
-        <f>1000000*C32</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>23.666666666666664</v>
       </c>
       <c r="C32">
-        <v>2.4000000000000001E-5</v>
+        <v>2.3666666666666665E-5</v>
       </c>
       <c r="E32">
         <v>110</v>
       </c>
       <c r="F32">
         <f>1000000*G32</f>
-        <v>245.99999999999997</v>
+        <v>531.66666666666674</v>
       </c>
       <c r="G32">
-        <v>2.4599999999999996E-4</v>
+        <v>5.3166666666666672E-4</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4268,21 +4258,21 @@
         <v>120</v>
       </c>
       <c r="B35">
-        <f>1000000*C35</f>
-        <v>36.666666666666664</v>
+        <f t="shared" si="0"/>
+        <v>30.666666666666668</v>
       </c>
       <c r="C35">
-        <v>3.6666666666666666E-5</v>
+        <v>3.0666666666666669E-5</v>
       </c>
       <c r="E35">
         <v>120</v>
       </c>
       <c r="F35">
         <f>1000000*G35</f>
-        <v>1541</v>
+        <v>322.66666666666669</v>
       </c>
       <c r="G35">
-        <v>1.5410000000000001E-3</v>
+        <v>3.2266666666666669E-4</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4290,21 +4280,21 @@
         <v>130</v>
       </c>
       <c r="B38">
-        <f>1000000*C38</f>
-        <v>30.666666666666668</v>
+        <f t="shared" si="0"/>
+        <v>27.000000000000004</v>
       </c>
       <c r="C38">
-        <v>3.0666666666666669E-5</v>
+        <v>2.7000000000000002E-5</v>
       </c>
       <c r="E38">
         <v>130</v>
       </c>
       <c r="F38">
         <f>1000000*G38</f>
-        <v>664.33333333333326</v>
+        <v>879.66666666666663</v>
       </c>
       <c r="G38">
-        <v>6.6433333333333329E-4</v>
+        <v>8.7966666666666662E-4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4312,21 +4302,21 @@
         <v>140</v>
       </c>
       <c r="B41">
-        <f>1000000*C41</f>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>2.9E-5</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="E41">
         <v>140</v>
       </c>
       <c r="F41">
         <f>1000000*G41</f>
-        <v>1540.6666666666665</v>
+        <v>1789.3333333333335</v>
       </c>
       <c r="G41">
-        <v>1.5406666666666665E-3</v>
+        <v>1.7893333333333335E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4334,21 +4324,21 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <f>1000000*C44</f>
-        <v>35.000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>30.333333333333332</v>
       </c>
       <c r="C44">
-        <v>3.5000000000000004E-5</v>
+        <v>3.0333333333333333E-5</v>
       </c>
       <c r="E44">
         <v>150</v>
       </c>
       <c r="F44">
         <f>1000000*G44</f>
-        <v>860.00000000000011</v>
+        <v>2905.666666666667</v>
       </c>
       <c r="G44">
-        <v>8.6000000000000009E-4</v>
+        <v>2.9056666666666671E-3</v>
       </c>
     </row>
   </sheetData>

--- a/ppx-ocaml-4.06-irmin-1.4.0/test/heap_leftlist/mem/heap_graph.xlsx
+++ b/ppx-ocaml-4.06-irmin-1.4.0/test/heap_leftlist/mem/heap_graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results - results" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Per-Round Compilation Time</c:v>
+            <c:v>per-round computation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -737,16 +737,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$39</c:f>
+              <c:f>Sheet1!$A$1:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
@@ -785,57 +784,69 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$39</c:f>
+              <c:f>Sheet1!$B$1:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6666666666666661</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>8.6666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>9.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>12.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.333333333333334</c:v>
+                  <c:v>14.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16</c:v>
+                  <c:v>15.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.999999999999996</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21.666666666666664</c:v>
+                  <c:v>35.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.000000000000004</c:v>
+                  <c:v>22.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.666666666666664</c:v>
+                  <c:v>22.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30.666666666666668</c:v>
+                  <c:v>26.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.000000000000004</c:v>
+                  <c:v>27.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.333333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,7 +862,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Avearge Merge Time</c:v>
+            <c:v>average merge time</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -887,7 +898,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -947,51 +957,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$39</c:f>
+              <c:f>Sheet1!$F$1:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.666666666666668</c:v>
+                  <c:v>6.6666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.333333333333343</c:v>
+                  <c:v>9.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124.33333333333334</c:v>
+                  <c:v>14.000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136.33333333333334</c:v>
+                  <c:v>13.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>180.66666666666666</c:v>
+                  <c:v>17.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>177</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>337.33333333333331</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>719</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>695.66666666666663</c:v>
+                  <c:v>29.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>691.33333333333326</c:v>
+                  <c:v>26.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>531.66666666666674</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>322.66666666666669</c:v>
+                  <c:v>27.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>879.66666666666663</c:v>
+                  <c:v>35.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,6 +1218,7 @@
         <c:crossAx val="688150991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="15"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1211,47 +1228,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17009854307133765"/>
-          <c:y val="0.18003937007874016"/>
-          <c:w val="0.33034057868514938"/>
-          <c:h val="0.27397738744195438"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3995,7 +3971,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4016,21 +3992,21 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B45" si="0">1000000*C2</f>
-        <v>8.6666666666666661</v>
+        <f t="shared" ref="B2:B44" si="0">1000000*C2</f>
+        <v>6.333333333333333</v>
       </c>
       <c r="C2">
-        <v>8.6666666666666661E-6</v>
+        <v>6.3333333333333334E-6</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
         <f>1000000*G2</f>
-        <v>20.666666666666668</v>
+        <v>6.6666666666666679</v>
       </c>
       <c r="G2">
-        <v>2.0666666666666666E-5</v>
+        <v>6.6666666666666675E-6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4039,20 +4015,20 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="C5">
-        <v>7.6666666666666672E-6</v>
+        <v>8.6666666666666678E-6</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5">
         <f>1000000*G5</f>
-        <v>76.333333333333343</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="G5">
-        <v>7.6333333333333337E-5</v>
+        <v>9.6666666666666667E-6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4061,20 +4037,20 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="C8">
-        <v>1.0000000000000001E-5</v>
+        <v>9.6666666666666667E-6</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8">
         <f>1000000*G8</f>
-        <v>124.33333333333334</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="G8">
-        <v>1.2433333333333334E-4</v>
+        <v>1.4000000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4083,20 +4059,20 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>1.1666666666666666E-5</v>
+        <v>1.2E-5</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11">
         <f>1000000*G11</f>
-        <v>136.33333333333334</v>
+        <v>13.666666666666668</v>
       </c>
       <c r="G11">
-        <v>1.3633333333333333E-4</v>
+        <v>1.3666666666666667E-5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4105,20 +4081,20 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>14.666666666666666</v>
+        <v>12.666666666666664</v>
       </c>
       <c r="C14">
-        <v>1.4666666666666666E-5</v>
+        <v>1.2666666666666665E-5</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="F14">
         <f>1000000*G14</f>
-        <v>180.66666666666666</v>
+        <v>17.333333333333336</v>
       </c>
       <c r="G14">
-        <v>1.8066666666666665E-4</v>
+        <v>1.7333333333333336E-5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4127,20 +4103,20 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
+        <v>14.333333333333332</v>
       </c>
       <c r="C17">
-        <v>1.4333333333333334E-5</v>
+        <v>1.4333333333333332E-5</v>
       </c>
       <c r="E17">
         <v>60</v>
       </c>
       <c r="F17">
         <f>1000000*G17</f>
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>1.7699999999999999E-4</v>
+        <v>1.9999999999999998E-5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4149,20 +4125,20 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="C20">
-        <v>1.5999999999999999E-5</v>
+        <v>1.5333333333333334E-5</v>
       </c>
       <c r="E20">
         <v>70</v>
       </c>
       <c r="F20">
         <f>1000000*G20</f>
-        <v>337.33333333333331</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>3.3733333333333331E-4</v>
+        <v>2.0999999999999999E-5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4171,20 +4147,20 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>18.999999999999996</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>1.8999999999999998E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="E23">
         <v>80</v>
       </c>
       <c r="F23">
         <f>1000000*G23</f>
-        <v>719</v>
+        <v>21</v>
       </c>
       <c r="G23">
-        <v>7.1900000000000002E-4</v>
+        <v>2.0999999999999999E-5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4193,20 +4169,20 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>21.666666666666664</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="C26">
-        <v>2.1666666666666664E-5</v>
+        <v>3.5333333333333336E-5</v>
       </c>
       <c r="E26">
         <v>90</v>
       </c>
       <c r="F26">
         <f>1000000*G26</f>
-        <v>695.66666666666663</v>
+        <v>29.666666666666664</v>
       </c>
       <c r="G26">
-        <v>6.9566666666666659E-4</v>
+        <v>2.9666666666666665E-5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4215,20 +4191,20 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>22.000000000000004</v>
+        <v>22.333333333333336</v>
       </c>
       <c r="C29">
-        <v>2.2000000000000003E-5</v>
+        <v>2.2333333333333335E-5</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29">
         <f>1000000*G29</f>
-        <v>691.33333333333326</v>
+        <v>26.999999999999996</v>
       </c>
       <c r="G29">
-        <v>6.913333333333333E-4</v>
+        <v>2.6999999999999996E-5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4237,20 +4213,20 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>23.666666666666664</v>
+        <v>22.333333333333336</v>
       </c>
       <c r="C32">
-        <v>2.3666666666666665E-5</v>
+        <v>2.2333333333333335E-5</v>
       </c>
       <c r="E32">
         <v>110</v>
       </c>
       <c r="F32">
         <f>1000000*G32</f>
-        <v>531.66666666666674</v>
+        <v>33</v>
       </c>
       <c r="G32">
-        <v>5.3166666666666672E-4</v>
+        <v>3.3000000000000003E-5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4259,20 +4235,20 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>30.666666666666668</v>
+        <v>26.666666666666671</v>
       </c>
       <c r="C35">
-        <v>3.0666666666666669E-5</v>
+        <v>2.666666666666667E-5</v>
       </c>
       <c r="E35">
         <v>120</v>
       </c>
       <c r="F35">
         <f>1000000*G35</f>
-        <v>322.66666666666669</v>
+        <v>27.333333333333336</v>
       </c>
       <c r="G35">
-        <v>3.2266666666666669E-4</v>
+        <v>2.7333333333333335E-5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4281,20 +4257,20 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>27.000000000000004</v>
+        <v>27.333333333333336</v>
       </c>
       <c r="C38">
-        <v>2.7000000000000002E-5</v>
+        <v>2.7333333333333335E-5</v>
       </c>
       <c r="E38">
         <v>130</v>
       </c>
       <c r="F38">
         <f>1000000*G38</f>
-        <v>879.66666666666663</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="G38">
-        <v>8.7966666666666662E-4</v>
+        <v>3.5333333333333336E-5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4303,20 +4279,20 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="C41">
-        <v>3.1999999999999999E-5</v>
+        <v>2.8666666666666668E-5</v>
       </c>
       <c r="E41">
         <v>140</v>
       </c>
       <c r="F41">
         <f>1000000*G41</f>
-        <v>1789.3333333333335</v>
+        <v>43.666666666666657</v>
       </c>
       <c r="G41">
-        <v>1.7893333333333335E-3</v>
+        <v>4.366666666666666E-5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4325,20 +4301,20 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>30.333333333333332</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="C44">
-        <v>3.0333333333333333E-5</v>
+        <v>4.1333333333333333E-5</v>
       </c>
       <c r="E44">
         <v>150</v>
       </c>
       <c r="F44">
         <f>1000000*G44</f>
-        <v>2905.666666666667</v>
+        <v>33.666666666666664</v>
       </c>
       <c r="G44">
-        <v>2.9056666666666671E-3</v>
+        <v>3.3666666666666667E-5</v>
       </c>
     </row>
   </sheetData>
